--- a/human_TRP_list.xlsx
+++ b/human_TRP_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoedellaert/Documents/URI/Genome_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF545DD6-9A5F-3F44-821D-1E352FBC905F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDD0CCB-7F76-094E-964E-E09A412FFBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{DC79FACB-6020-EA4C-9FFF-6A930243CC05}"/>
   </bookViews>
@@ -365,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -380,6 +380,24 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A15104F-DAE8-BF46-B7A3-BC5A22DFAFA7}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="G8" sqref="A3:G8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="118" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -717,7 +735,7 @@
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -733,7 +751,7 @@
       <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -756,7 +774,7 @@
       <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="13" t="s">
         <v>82</v>
       </c>
       <c r="F2" s="7">
@@ -779,7 +797,7 @@
       <c r="D3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="14" t="s">
         <v>79</v>
       </c>
       <c r="F3" s="4">
@@ -800,7 +818,7 @@
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="14" t="s">
         <v>79</v>
       </c>
       <c r="F4" s="4">
@@ -821,7 +839,7 @@
       <c r="D5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="14" t="s">
         <v>79</v>
       </c>
       <c r="F5" s="4">
@@ -844,7 +862,7 @@
       <c r="D6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="14" t="s">
         <v>79</v>
       </c>
       <c r="F6" s="4">
@@ -865,7 +883,7 @@
       <c r="D7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="14" t="s">
         <v>79</v>
       </c>
       <c r="F7" s="4">
@@ -886,7 +904,7 @@
       <c r="D8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="14" t="s">
         <v>79</v>
       </c>
       <c r="F8" s="4">
@@ -909,7 +927,7 @@
       <c r="D9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="15" t="s">
         <v>81</v>
       </c>
       <c r="F9" s="5">
@@ -930,7 +948,7 @@
       <c r="D10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="15" t="s">
         <v>80</v>
       </c>
       <c r="F10" s="5">
@@ -953,7 +971,7 @@
       <c r="D11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="15" t="s">
         <v>73</v>
       </c>
       <c r="F11" s="5">
@@ -974,7 +992,7 @@
       <c r="D12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="15" t="s">
         <v>80</v>
       </c>
       <c r="F12" s="5">
@@ -995,7 +1013,7 @@
       <c r="D13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="15" t="s">
         <v>81</v>
       </c>
       <c r="F13" s="5">
@@ -1016,7 +1034,7 @@
       <c r="D14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="15" t="s">
         <v>78</v>
       </c>
       <c r="F14" s="5">
@@ -1037,7 +1055,7 @@
       <c r="D15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="15" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="5">
@@ -1058,7 +1076,7 @@
       <c r="D16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="15" t="s">
         <v>80</v>
       </c>
       <c r="F16" s="5">
@@ -1081,7 +1099,7 @@
       <c r="D17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="16" t="s">
         <v>77</v>
       </c>
       <c r="F17" s="6">
@@ -1102,7 +1120,7 @@
         <v>61</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
@@ -1117,7 +1135,7 @@
       <c r="D19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="16" t="s">
         <v>76</v>
       </c>
       <c r="F19" s="6">
@@ -1140,7 +1158,7 @@
       <c r="D20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="16" t="s">
         <v>77</v>
       </c>
       <c r="F20" s="6">
@@ -1163,7 +1181,7 @@
       <c r="D21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="16" t="s">
         <v>77</v>
       </c>
       <c r="F21" s="6">
@@ -1186,7 +1204,7 @@
       <c r="D22" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="16" t="s">
         <v>76</v>
       </c>
       <c r="F22" s="6">
@@ -1207,7 +1225,7 @@
       <c r="D23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="16" t="s">
         <v>77</v>
       </c>
       <c r="F23" s="6">

--- a/human_TRP_list.xlsx
+++ b/human_TRP_list.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoedellaert/Documents/URI/Genome_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDD0CCB-7F76-094E-964E-E09A412FFBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002C2818-1A1D-6246-B1B1-5FF587E532AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{DC79FACB-6020-EA4C-9FFF-6A930243CC05}"/>
+    <workbookView xWindow="29400" yWindow="500" windowWidth="23720" windowHeight="19200" xr2:uid="{DC79FACB-6020-EA4C-9FFF-6A930243CC05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$23</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="113">
   <si>
     <t>TRPA1</t>
   </si>
@@ -285,14 +289,112 @@
   </si>
   <si>
     <t>Pocillopora_acuta_HIv2___RNAseq.g28464.t1</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.10010_t</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.1475_t</t>
+  </si>
+  <si>
+    <t>Second Best match Pacuta BLAST</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.g5775.t1</t>
+  </si>
+  <si>
+    <t>Third Best match Pacuta BLAST</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.g9466.t1</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___TS.g20937.t2</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.g11853.t1</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.g18628.t1</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.g11847.t1</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___TS.g25981.t2</t>
+  </si>
+  <si>
+    <t>Nematostella ortholog?</t>
+  </si>
+  <si>
+    <t>Fourth Best match Pacuta BLAST</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.g9444.t1</t>
+  </si>
+  <si>
+    <t>Fifth Best match Pacuta BLAST</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.g11857.t1</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.g10695.t1</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.g5760.t1</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.g9443.t1</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.g10676.t1</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.g19739.t1</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.g16917.t1</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___TS.g25940.t1b</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.g16891.t1</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.g15862.t2b</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.g22212.t1</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.g5777.t1</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___RNAseq.g5778.t1</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___TS.g13986.t1</t>
+  </si>
+  <si>
+    <t>Pocillopora_acuta_HIv2___TS.g25979.t1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -365,25 +467,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -398,11 +494,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -723,22 +931,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A15104F-DAE8-BF46-B7A3-BC5A22DFAFA7}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="118" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="14" max="14" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -751,7 +969,7 @@
       <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -760,486 +978,1545 @@
       <c r="G1" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="15">
         <v>0.32</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="16">
         <v>9.9999999999999998E-141</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J2" s="16">
+        <v>8.9999999999999994E-136</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M2" s="16">
+        <v>7.0000000000000004E-131</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P2" s="16">
+        <v>6.4699999999999996E-127</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S2" s="16">
+        <v>7.9700000000000002E-125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="5">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2E-85</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="5">
+        <v>29</v>
+      </c>
+      <c r="J3" s="6">
+        <v>7.9999999999999997E-81</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="5">
+        <v>29</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1.9999999999999999E-80</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="5">
+        <v>28</v>
+      </c>
+      <c r="P3" s="6">
+        <v>5.5400000000000005E-60</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3" s="5">
+        <v>25</v>
+      </c>
+      <c r="S3" s="6">
+        <v>2.47E-58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="5">
+        <v>32</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1.9999999999999999E-106</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="5">
+        <v>31</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1.9999999999999999E-104</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="5">
+        <v>32</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1.9999999999999999E-103</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" s="5">
+        <v>28</v>
+      </c>
+      <c r="P5" s="6">
+        <v>9.8999999999999994E-79</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" s="5">
+        <v>29</v>
+      </c>
+      <c r="S5" s="6">
+        <v>4.5200000000000004E-75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="24">
+        <v>34</v>
+      </c>
+      <c r="G6" s="26">
+        <v>4E-109</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="24">
+        <v>31</v>
+      </c>
+      <c r="J6" s="26">
+        <v>5.0000000000000001E-101</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="24">
+        <v>31</v>
+      </c>
+      <c r="M6" s="26">
+        <v>3E-98</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="O6" s="24">
+        <v>29</v>
+      </c>
+      <c r="P6" s="26">
+        <v>2.1E-82</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="R6" s="24">
+        <v>30</v>
+      </c>
+      <c r="S6" s="26">
+        <v>2.34E-76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="24">
+        <v>33</v>
+      </c>
+      <c r="G7" s="26">
+        <v>8.0000000000000003E-108</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="24">
+        <v>32</v>
+      </c>
+      <c r="J7" s="26">
+        <v>3.9999999999999999E-105</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="24">
+        <v>31</v>
+      </c>
+      <c r="M7" s="26">
+        <v>4.0000000000000001E-97</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7" s="24">
+        <v>30</v>
+      </c>
+      <c r="P7" s="26">
+        <v>2.8999999999999999E-81</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="R7" s="24">
+        <v>32</v>
+      </c>
+      <c r="S7" s="26">
+        <v>3.7399999999999999E-72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="24">
+        <v>33</v>
+      </c>
+      <c r="G8" s="26">
+        <v>9.9999999999999994E-107</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="24">
+        <v>33</v>
+      </c>
+      <c r="J8" s="26">
+        <v>3.0000000000000002E-104</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="24">
+        <v>30</v>
+      </c>
+      <c r="M8" s="26">
+        <v>4.9999999999999997E-99</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" s="24">
+        <v>28</v>
+      </c>
+      <c r="P8" s="26">
+        <v>3.2199999999999998E-82</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="R8" s="24">
+        <v>30</v>
+      </c>
+      <c r="S8" s="26">
+        <v>4.1300000000000002E-81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="5">
+        <v>29</v>
+      </c>
+      <c r="G9" s="6">
+        <v>4.9999999999999997E-50</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="5">
+        <v>28</v>
+      </c>
+      <c r="J9" s="6">
+        <v>5.9999999999999998E-48</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="5">
+        <v>28</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1.0000000000000001E-43</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="5">
+        <v>30</v>
+      </c>
+      <c r="P9" s="6">
+        <v>1.5199999999999999E-40</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" s="5">
+        <v>28</v>
+      </c>
+      <c r="S9" s="6">
+        <v>3.25E-40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="4">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="4">
+        <v>40</v>
+      </c>
+      <c r="J10" s="8">
+        <v>4E-159</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="4">
+        <v>37</v>
+      </c>
+      <c r="M10" s="8">
+        <v>6.9999999999999996E-153</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="4">
+        <v>33</v>
+      </c>
+      <c r="P10" s="8">
+        <v>5.3500000000000001E-118</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R10" s="4">
+        <v>22</v>
+      </c>
+      <c r="S10" s="8">
+        <v>4.5599999999999999E-15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="4">
+        <v>30</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1.9999999999999999E-162</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="4">
+        <v>37</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1.9999999999999999E-143</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="4">
+        <v>37</v>
+      </c>
+      <c r="M11" s="8">
+        <v>3E-122</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O11" s="4">
+        <v>34</v>
+      </c>
+      <c r="P11" s="8">
+        <v>3.9E-110</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="R11" s="4">
+        <v>36</v>
+      </c>
+      <c r="S11" s="8">
+        <v>4.83E-45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="4">
+        <v>48</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.9999999999999998E-71</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="4">
+        <v>46</v>
+      </c>
+      <c r="J12" s="8">
+        <v>6.0000000000000006E-67</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="4">
+        <v>42</v>
+      </c>
+      <c r="M12" s="8">
+        <v>5E-56</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="4">
+        <v>41</v>
+      </c>
+      <c r="P12" s="8">
+        <v>7.3899999999999999E-49</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="R12" s="4">
+        <v>24</v>
+      </c>
+      <c r="S12" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="4">
+        <v>28</v>
+      </c>
+      <c r="G13" s="8">
+        <v>4.0000000000000002E-135</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="4">
+        <v>33</v>
+      </c>
+      <c r="J13" s="8">
+        <v>9.9999999999999999E-110</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="4">
+        <v>33</v>
+      </c>
+      <c r="M13" s="8">
+        <v>4.9999999999999998E-106</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="4">
+        <v>33</v>
+      </c>
+      <c r="P13" s="8">
+        <v>5.0099999999999999E-97</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R13" s="4">
+        <v>25</v>
+      </c>
+      <c r="S13" s="8">
+        <v>2.93E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="4">
+        <v>32</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1E-167</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="4">
+        <v>31</v>
+      </c>
+      <c r="J14" s="8">
+        <v>3.0000000000000002E-149</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="4">
+        <v>31</v>
+      </c>
+      <c r="M14" s="8">
+        <v>2.9999999999999999E-139</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" s="4">
+        <v>28</v>
+      </c>
+      <c r="P14" s="8">
+        <v>2.56E-138</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="4">
+        <v>24</v>
+      </c>
+      <c r="S14" s="8">
+        <v>2.07E-14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="21">
+        <v>37</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="21">
+        <v>36</v>
+      </c>
+      <c r="J15" s="21">
+        <v>0</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="21">
+        <v>31</v>
+      </c>
+      <c r="M15" s="21">
+        <v>0</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" s="21">
+        <v>30</v>
+      </c>
+      <c r="P15" s="27">
+        <v>5.3199999999999997E-163</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="R15" s="21">
+        <v>26</v>
+      </c>
+      <c r="S15" s="27">
+        <v>1.77E-14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="4">
+        <v>31</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="4">
+        <v>31</v>
+      </c>
+      <c r="J16" s="8">
+        <v>2E-176</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="4">
+        <v>35</v>
+      </c>
+      <c r="M16" s="8">
+        <v>9.0000000000000005E-126</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" s="4">
+        <v>35</v>
+      </c>
+      <c r="P16" s="8">
+        <v>5.6099999999999996E-125</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="R16" s="4">
+        <v>26</v>
+      </c>
+      <c r="S16" s="8">
+        <v>7.2100000000000003E-14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="4">
+        <v>48</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1.9999999999999999E-143</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="4">
+        <v>30</v>
+      </c>
+      <c r="J17" s="8">
+        <v>3E-134</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="4">
+        <v>35</v>
+      </c>
+      <c r="M17" s="8">
+        <v>2E-125</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" s="4">
+        <v>33</v>
+      </c>
+      <c r="P17" s="8">
+        <v>1.23E-95</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="R17" s="4">
+        <v>25</v>
+      </c>
+      <c r="S17" s="8">
+        <v>1.5400000000000001E-19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E18" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F18" s="3">
         <v>28</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G18" s="7">
         <v>1.9999999999999999E-49</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="H18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="3">
+        <v>27</v>
+      </c>
+      <c r="J18" s="7">
+        <v>4.0000000000000003E-30</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="3">
+        <v>20</v>
+      </c>
+      <c r="M18" s="7">
+        <v>3.9999999999999999E-12</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" s="3">
+        <v>23</v>
+      </c>
+      <c r="P18" s="7">
+        <v>5.5599999999999997E-12</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="R18" s="3">
+        <v>22</v>
+      </c>
+      <c r="S18" s="7">
+        <v>3.3999999999999998E-9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E19" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F19" s="3">
         <v>25</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G19" s="7">
         <v>9.9999999999999996E-39</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="H19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="3">
+        <v>27</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1E-26</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="3">
+        <v>22</v>
+      </c>
+      <c r="M19" s="7">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O19" s="3">
+        <v>21</v>
+      </c>
+      <c r="P19" s="7">
+        <v>7.8000000000000005E-7</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="R19" s="3">
+        <v>28</v>
+      </c>
+      <c r="S19" s="7">
+        <v>9.3099999999999996E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E20" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F20" s="3">
         <v>28</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G20" s="7">
         <v>1E-53</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="H20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="3">
+        <v>29</v>
+      </c>
+      <c r="J20" s="7">
+        <v>8.9999999999999995E-24</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="3">
+        <v>22</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2.9999999999999999E-16</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20" s="3">
+        <v>21</v>
+      </c>
+      <c r="P20" s="7">
+        <v>4.3299999999999999E-16</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="R20" s="3">
+        <v>21</v>
+      </c>
+      <c r="S20" s="7">
+        <v>7.7300000000000004E-16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E21" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F21" s="3">
         <v>28</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G21" s="7">
         <v>4.0000000000000001E-46</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="H21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="3">
+        <v>26</v>
+      </c>
+      <c r="J21" s="7">
+        <v>3.0000000000000001E-27</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="3">
+        <v>22</v>
+      </c>
+      <c r="M21" s="7">
+        <v>4.0000000000000001E-13</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O21" s="3">
+        <v>23</v>
+      </c>
+      <c r="P21" s="7">
+        <v>1.23E-12</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="R21" s="3">
+        <v>23</v>
+      </c>
+      <c r="S21" s="7">
+        <v>4.38E-11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E22" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F22" s="18">
         <v>28</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G22" s="19">
         <v>5.0000000000000001E-59</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="H22" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="18">
+        <v>28</v>
+      </c>
+      <c r="J22" s="19">
+        <v>3E-52</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="18">
+        <v>23</v>
+      </c>
+      <c r="M22" s="19">
+        <v>8.9999999999999999E-18</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22" s="18">
+        <v>23</v>
+      </c>
+      <c r="P22" s="19">
+        <v>3.7799999999999998E-16</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="R22" s="18">
+        <v>22</v>
+      </c>
+      <c r="S22" s="19">
+        <v>1.6400000000000001E-13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E23" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F23" s="3">
         <v>28</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G23" s="7">
         <v>7.0000000000000006E-64</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="5">
-        <v>31</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="5">
-        <v>30</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1.9999999999999999E-162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="H23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="3">
+        <v>27</v>
+      </c>
+      <c r="J23" s="7">
+        <v>4.0000000000000001E-53</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="3">
+        <v>22</v>
+      </c>
+      <c r="M23" s="7">
+        <v>9.9999999999999998E-17</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23" s="3">
+        <v>22</v>
+      </c>
+      <c r="P23" s="7">
+        <v>4.1100000000000002E-16</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="R23" s="3">
         <v>23</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="5">
-        <v>48</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1.9999999999999998E-71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="5">
-        <v>28</v>
-      </c>
-      <c r="G12" s="11">
-        <v>4.0000000000000002E-135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="5">
-        <v>32</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1E-167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="5">
-        <v>37</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="5">
-        <v>31</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="5">
-        <v>48</v>
-      </c>
-      <c r="G16" s="11">
-        <v>1.9999999999999999E-143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="6">
-        <v>29</v>
-      </c>
-      <c r="G17" s="9">
-        <v>2E-85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="6">
-        <v>32</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1.9999999999999999E-106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="6">
-        <v>34</v>
-      </c>
-      <c r="G20" s="9">
-        <v>4E-109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="6">
-        <v>33</v>
-      </c>
-      <c r="G21" s="9">
-        <v>8.0000000000000003E-108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="6">
-        <v>33</v>
-      </c>
-      <c r="G22" s="9">
-        <v>9.9999999999999994E-107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="6">
-        <v>29</v>
-      </c>
-      <c r="G23" s="9">
-        <v>4.9999999999999997E-50</v>
+      <c r="S23" s="7">
+        <v>6.8999999999999996E-14</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E23">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
+  <autoFilter ref="A1:S23" xr:uid="{6A15104F-DAE8-BF46-B7A3-BC5A22DFAFA7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S23">
+      <sortCondition ref="A1:A23"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3054F68A-DF51-364C-B0B8-1955FC2B5F87}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScale="262" zoomScaleNormal="262" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>